--- a/Graphics II Project Rubric.xlsx
+++ b/Graphics II Project Rubric.xlsx
@@ -411,7 +411,7 @@
     <t>http://www.opengl-tutorial.org/beginners-tutorials/tutorial-7-model-loading/</t>
   </si>
   <si>
-    <t>James Bean - Fullsail Grad, helped with understanding Vertext shaders and Pixel shaders</t>
+    <t>James Bean - tutor, helped with understanding Vertext shaders and Pixel shaders</t>
   </si>
 </sst>
 </file>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3071,7 +3071,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Graphics II Project Rubric.xlsx
+++ b/Graphics II Project Rubric.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>James Bean - tutor, helped with understanding Vertext shaders and Pixel shaders</t>
+  </si>
+  <si>
+    <t>II</t>
   </si>
 </sst>
 </file>
@@ -932,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,7 +1068,7 @@
       </c>
       <c r="I4" s="5">
         <f>IF(SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) &gt; 22, 22, SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="5">
         <f>IF(SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) &gt; 22, 22, SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91))</f>
@@ -1077,7 +1080,7 @@
       </c>
       <c r="L4" s="9">
         <f>SUM(G4:G85) + SUMIF(C90:C91, "X",B90:B91) + SUMIF(D90:D91, "X",B90:B91) + SUMIF(E90:E91, "X",B90:B91)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1167,7 +1170,9 @@
       <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
@@ -1210,7 +1215,7 @@
       </c>
       <c r="I8" s="9">
         <f>I4+IF(I4 &lt; 22, IF(H10+I4 &gt; 22, 22- I4, H10),0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J8" s="9">
         <f>J4+IF(J4 &lt; 22, IF(I10+J4 &gt; 22, 22- J4, I10),0)</f>
@@ -1580,7 +1585,9 @@
       <c r="D24" s="5">
         <v>5</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
@@ -1721,7 +1728,9 @@
       <c r="D31" s="5">
         <v>3</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="8">
         <f t="shared" si="0"/>
@@ -1746,7 +1755,9 @@
       <c r="D32" s="5">
         <v>3</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="8">
         <f t="shared" si="0"/>
@@ -1771,11 +1782,15 @@
       <c r="D33" s="5">
         <v>1</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
+      <c r="E33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G33" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -1796,7 +1811,9 @@
       <c r="D34" s="5">
         <v>1</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="8">
         <f t="shared" si="0"/>
@@ -1821,7 +1838,9 @@
       <c r="D35" s="5">
         <v>1</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="8">
         <f t="shared" si="0"/>
@@ -1846,7 +1865,9 @@
       <c r="D36" s="5">
         <v>2</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="8">
         <f t="shared" ref="G36:G67" si="1" xml:space="preserve"> IF(EXACT(F36,"X"),IF(EXACT(E36,"I"),$B36,IF(EXACT(E36,"II"),$C36,IF(EXACT(E36,"III"),$D36,0))),0)</f>
@@ -2220,7 +2241,9 @@
       <c r="D54" s="5">
         <v>3</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F54" s="3"/>
       <c r="G54" s="8">
         <f t="shared" si="1"/>
@@ -2245,7 +2268,9 @@
       <c r="D55" s="5">
         <v>3</v>
       </c>
-      <c r="E55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F55" s="3"/>
       <c r="G55" s="8">
         <f t="shared" si="1"/>
@@ -2499,7 +2524,9 @@
       <c r="D67" s="5">
         <v>5</v>
       </c>
-      <c r="E67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F67" s="3"/>
       <c r="G67" s="8">
         <f t="shared" si="1"/>
@@ -2524,7 +2551,9 @@
       <c r="D68" s="5">
         <v>5</v>
       </c>
-      <c r="E68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F68" s="3"/>
       <c r="G68" s="8">
         <f t="shared" ref="G68:G85" si="2" xml:space="preserve"> IF(EXACT(F68,"X"),IF(EXACT(E68,"I"),$B68,IF(EXACT(E68,"II"),$C68,IF(EXACT(E68,"III"),$D68,0))),0)</f>
@@ -3071,7 +3100,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Graphics II Project Rubric.xlsx
+++ b/Graphics II Project Rubric.xlsx
@@ -60,6 +60,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="F31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+f4</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F65" authorId="0">
       <text>
         <r>
@@ -109,12 +133,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="F67" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+f6
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -936,7 +985,7 @@
   <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1068,7 +1117,7 @@
       </c>
       <c r="I4" s="5">
         <f>IF(SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) &gt; 22, 22, SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91))</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J4" s="5">
         <f>IF(SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) &gt; 22, 22, SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91))</f>
@@ -1080,7 +1129,7 @@
       </c>
       <c r="L4" s="9">
         <f>SUM(G4:G85) + SUMIF(C90:C91, "X",B90:B91) + SUMIF(D90:D91, "X",B90:B91) + SUMIF(E90:E91, "X",B90:B91)</f>
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1170,9 +1219,7 @@
       <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
@@ -1215,11 +1262,11 @@
       </c>
       <c r="I8" s="9">
         <f>I4+IF(I4 &lt; 22, IF(H10+I4 &gt; 22, 22- I4, H10),0)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J8" s="9">
         <f>J4+IF(J4 &lt; 22, IF(I10+J4 &gt; 22, 22- J4, I10),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1280,7 +1327,7 @@
       </c>
       <c r="I10" s="5">
         <f>IF(H10+I4 - 22 &gt; 0, H10+I4 - 22, 0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" s="5">
         <f>IF(I10+J4 - 22 &gt; 0, I10+J4 - 22, 0)</f>
@@ -1585,9 +1632,7 @@
       <c r="D24" s="5">
         <v>5</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="3"/>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
@@ -1731,10 +1776,12 @@
       <c r="E31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G31" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -1814,10 +1861,12 @@
       <c r="E34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G34" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -1841,10 +1890,12 @@
       <c r="E35" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G35" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -1865,9 +1916,7 @@
       <c r="D36" s="5">
         <v>2</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="3"/>
       <c r="G36" s="8">
         <f t="shared" ref="G36:G67" si="1" xml:space="preserve"> IF(EXACT(F36,"X"),IF(EXACT(E36,"I"),$B36,IF(EXACT(E36,"II"),$C36,IF(EXACT(E36,"III"),$D36,0))),0)</f>
@@ -2527,10 +2576,12 @@
       <c r="E67" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F67" s="3"/>
+      <c r="F67" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G67" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
@@ -2551,9 +2602,7 @@
       <c r="D68" s="5">
         <v>5</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="E68" s="2"/>
       <c r="F68" s="3"/>
       <c r="G68" s="8">
         <f t="shared" ref="G68:G85" si="2" xml:space="preserve"> IF(EXACT(F68,"X"),IF(EXACT(E68,"I"),$B68,IF(EXACT(E68,"II"),$C68,IF(EXACT(E68,"III"),$D68,0))),0)</f>
@@ -2940,7 +2989,9 @@
       <c r="C90" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="3"/>
+      <c r="D90" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E90" s="3"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -2960,7 +3011,9 @@
       <c r="C91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D91" s="3"/>
+      <c r="D91" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E91" s="3"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -3100,7 +3153,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Graphics II Project Rubric.xlsx
+++ b/Graphics II Project Rubric.xlsx
@@ -84,6 +84,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="F32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+f7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+f7</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F65" authorId="0">
       <text>
         <r>
@@ -163,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -985,7 +1033,7 @@
   <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,7 +1165,7 @@
       </c>
       <c r="I4" s="5">
         <f>IF(SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) &gt; 22, 22, SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91))</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J4" s="5">
         <f>IF(SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) &gt; 22, 22, SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91))</f>
@@ -1125,11 +1173,11 @@
       </c>
       <c r="K4" s="5">
         <f>SUM(H6,I6,J6)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L4" s="9">
         <f>SUM(G4:G85) + SUMIF(C90:C91, "X",B90:B91) + SUMIF(D90:D91, "X",B90:B91) + SUMIF(E90:E91, "X",B90:B91)</f>
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1194,7 +1242,7 @@
       </c>
       <c r="I6" s="5">
         <f>IF(SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) &gt; 22, SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) - 22,0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J6" s="5">
         <f>IF(SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) &gt; 22, SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) - 22,0)</f>
@@ -1266,7 +1314,7 @@
       </c>
       <c r="J8" s="9">
         <f>J4+IF(J4 &lt; 22, IF(I10+J4 &gt; 22, 22- J4, I10),0)</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1323,11 +1371,11 @@
       </c>
       <c r="H10" s="5">
         <f>IF(K4+H4 - 22 &gt; 0, K4+H4 - 22, 0)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I10" s="5">
         <f>IF(H10+I4 - 22 &gt; 0, H10+I4 - 22, 0)</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J10" s="5">
         <f>IF(I10+J4 - 22 &gt; 0, I10+J4 - 22, 0)</f>
@@ -1805,10 +1853,12 @@
       <c r="E32" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G32" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -1916,11 +1966,15 @@
       <c r="D36" s="5">
         <v>2</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
+      <c r="E36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G36" s="8">
         <f t="shared" ref="G36:G67" si="1" xml:space="preserve"> IF(EXACT(F36,"X"),IF(EXACT(E36,"I"),$B36,IF(EXACT(E36,"II"),$C36,IF(EXACT(E36,"III"),$D36,0))),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -2016,11 +2070,15 @@
       <c r="D40" s="5">
         <v>3</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="3"/>
+      <c r="E40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G40" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -2136,11 +2194,15 @@
       <c r="D46" s="5">
         <v>3</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="3"/>
+      <c r="E46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G46" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -2290,9 +2352,7 @@
       <c r="D54" s="5">
         <v>3</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="E54" s="2"/>
       <c r="F54" s="3"/>
       <c r="G54" s="8">
         <f t="shared" si="1"/>
@@ -2317,9 +2377,7 @@
       <c r="D55" s="5">
         <v>3</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="3"/>
       <c r="G55" s="8">
         <f t="shared" si="1"/>
@@ -3153,7 +3211,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Graphics II Project Rubric.xlsx
+++ b/Graphics II Project Rubric.xlsx
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>II</t>
+  </si>
+  <si>
+    <t>http://www.braynzarsoft.net/index.php?p=DX11Lessons</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3130,7 +3133,9 @@
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="16"/>
+      <c r="A98" s="16" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="16"/>
@@ -3211,7 +3216,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Graphics II Project Rubric.xlsx
+++ b/Graphics II Project Rubric.xlsx
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>http://www.braynzarsoft.net/index.php?p=DX11Lessons</t>
+  </si>
+  <si>
+    <t>III</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,15 +1175,15 @@
       </c>
       <c r="J4" s="5">
         <f>IF(SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) &gt; 22, 22, SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91))</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K4" s="5">
         <f>SUM(H6,I6,J6)</f>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L4" s="9">
         <f>SUM(G4:G85) + SUMIF(C90:C91, "X",B90:B91) + SUMIF(D90:D91, "X",B90:B91) + SUMIF(E90:E91, "X",B90:B91)</f>
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1233,11 +1236,15 @@
       <c r="D6" s="5">
         <v>5</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="5">
         <f>IF(SUMIF(E4:E85,"=I",G4:G85) + SUMIF(C90:C91, "X",B90:B91)  &gt; 22, SUMIF(E4:E85,"=I",G4:G85) + SUMIF(C90:C91, "X",B90:B91) - 22,0)</f>
@@ -1249,12 +1256,12 @@
       </c>
       <c r="J6" s="5">
         <f>IF(SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) &gt; 22, SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) - 22,0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="9">
         <f>IF(L4 &gt; 66, SUM(-66,L4),0)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1317,7 +1324,7 @@
       </c>
       <c r="J8" s="9">
         <f>J4+IF(J4 &lt; 22, IF(I10+J4 &gt; 22, 22- J4, I10),0)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1374,15 +1381,15 @@
       </c>
       <c r="H10" s="5">
         <f>IF(K4+H4 - 22 &gt; 0, K4+H4 - 22, 0)</f>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I10" s="5">
         <f>IF(H10+I4 - 22 &gt; 0, H10+I4 - 22, 0)</f>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J10" s="5">
         <f>IF(I10+J4 - 22 &gt; 0, I10+J4 - 22, 0)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1583,11 +1590,15 @@
       <c r="D20" s="5">
         <v>5</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1683,11 +1694,15 @@
       <c r="D24" s="5">
         <v>5</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -2355,11 +2370,15 @@
       <c r="D54" s="5">
         <v>3</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="3"/>
+      <c r="E54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G54" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -2380,11 +2399,15 @@
       <c r="D55" s="5">
         <v>3</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="3"/>
+      <c r="E55" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G55" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -2405,11 +2428,15 @@
       <c r="D56" s="5">
         <v>5</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="3"/>
+      <c r="E56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G56" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -2663,11 +2690,15 @@
       <c r="D68" s="5">
         <v>5</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="3"/>
+      <c r="E68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G68" s="8">
         <f t="shared" ref="G68:G85" si="2" xml:space="preserve"> IF(EXACT(F68,"X"),IF(EXACT(E68,"I"),$B68,IF(EXACT(E68,"II"),$C68,IF(EXACT(E68,"III"),$D68,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
@@ -3053,7 +3084,9 @@
       <c r="D90" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E90" s="3"/>
+      <c r="E90" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -3075,7 +3108,9 @@
       <c r="D91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E91" s="3"/>
+      <c r="E91" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -3216,7 +3251,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Graphics II Project Rubric.xlsx
+++ b/Graphics II Project Rubric.xlsx
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,15 +1175,15 @@
       </c>
       <c r="J4" s="5">
         <f>IF(SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) &gt; 22, 22, SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91))</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K4" s="5">
         <f>SUM(H6,I6,J6)</f>
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="L4" s="9">
         <f>SUM(G4:G85) + SUMIF(C90:C91, "X",B90:B91) + SUMIF(D90:D91, "X",B90:B91) + SUMIF(E90:E91, "X",B90:B91)</f>
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1239,12 +1239,10 @@
       <c r="E6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5">
         <f>IF(SUMIF(E4:E85,"=I",G4:G85) + SUMIF(C90:C91, "X",B90:B91)  &gt; 22, SUMIF(E4:E85,"=I",G4:G85) + SUMIF(C90:C91, "X",B90:B91) - 22,0)</f>
@@ -1256,12 +1254,12 @@
       </c>
       <c r="J6" s="5">
         <f>IF(SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) &gt; 22, SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) - 22,0)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="9">
         <f>IF(L4 &gt; 66, SUM(-66,L4),0)</f>
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1381,15 +1379,15 @@
       </c>
       <c r="H10" s="5">
         <f>IF(K4+H4 - 22 &gt; 0, K4+H4 - 22, 0)</f>
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I10" s="5">
         <f>IF(H10+I4 - 22 &gt; 0, H10+I4 - 22, 0)</f>
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J10" s="5">
         <f>IF(I10+J4 - 22 &gt; 0, I10+J4 - 22, 0)</f>
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1593,12 +1591,10 @@
       <c r="E20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1669,7 +1665,9 @@
       <c r="D23" s="5">
         <v>4</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
@@ -2402,12 +2400,10 @@
       <c r="E55" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="F55" s="3"/>
       <c r="G55" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -2431,12 +2427,10 @@
       <c r="E56" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="F56" s="3"/>
       <c r="G56" s="8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -3251,7 +3245,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Graphics II Project Rubric.xlsx
+++ b/Graphics II Project Rubric.xlsx
@@ -132,6 +132,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="F56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Line 421
+Loading three textures</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F65" authorId="0">
       <text>
         <r>
@@ -211,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -1038,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,15 +1200,15 @@
       </c>
       <c r="J4" s="5">
         <f>IF(SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) &gt; 22, 22, SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91))</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K4" s="5">
         <f>SUM(H6,I6,J6)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L4" s="9">
         <f>SUM(G4:G85) + SUMIF(C90:C91, "X",B90:B91) + SUMIF(D90:D91, "X",B90:B91) + SUMIF(E90:E91, "X",B90:B91)</f>
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1254,12 +1279,12 @@
       </c>
       <c r="J6" s="5">
         <f>IF(SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) &gt; 22, SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) - 22,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="9">
         <f>IF(L4 &gt; 66, SUM(-66,L4),0)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1379,15 +1404,15 @@
       </c>
       <c r="H10" s="5">
         <f>IF(K4+H4 - 22 &gt; 0, K4+H4 - 22, 0)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I10" s="5">
         <f>IF(H10+I4 - 22 &gt; 0, H10+I4 - 22, 0)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J10" s="5">
         <f>IF(I10+J4 - 22 &gt; 0, I10+J4 - 22, 0)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1668,10 +1693,12 @@
       <c r="E23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -2427,10 +2454,12 @@
       <c r="E56" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G56" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -3245,7 +3274,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
